--- a/data/points/LNG_points_info.xlsx
+++ b/data/points/LNG_points_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\OneDrive\Documents\M2 2023-2024\Mémoire\FINAL\data\points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614F1B9-47DE-40F2-A180-A031FD0A72B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358CAB82-D6D3-4193-A0CE-35EE83F07AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0B02B7C-AE48-41A9-A1A8-EC8A6A9E7A72}"/>
+    <workbookView xWindow="0" yWindow="2004" windowWidth="17280" windowHeight="8964" xr2:uid="{D0B02B7C-AE48-41A9-A1A8-EC8A6A9E7A72}"/>
   </bookViews>
   <sheets>
     <sheet name="LNG_points_info" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>flore</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{630F6B00-1F75-4250-A655-60F2D48B3DBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>flore:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Started end 2023
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{52EE4C1D-5D11-4159-9591-1D8D87271518}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>flore:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Started end of 2023
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -178,9 +238,6 @@
     <t>Aegean LNG</t>
   </si>
   <si>
-    <t>Revithoussa</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -238,9 +295,6 @@
     <t>Limassol</t>
   </si>
   <si>
-    <t>TVB</t>
-  </si>
-  <si>
     <t>Eems Energy Terminal</t>
   </si>
   <si>
@@ -296,13 +350,19 @@
   </si>
   <si>
     <t>Wilhelmshaven, LNG-Terminal 2</t>
+  </si>
+  <si>
+    <t>Thrace FSRU</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +508,19 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1177,11 +1250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02BB374-BB16-421B-8F61-15C9EB41AEF9}">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02BB374-BB16-421B-8F61-15C9EB41AEF9}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F25" s="4">
         <v>37950</v>
@@ -1766,19 +1839,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1">
         <v>483</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="4">
         <v>52567</v>
@@ -1795,13 +1868,13 @@
         <v>484</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="4">
         <v>40833</v>
@@ -1812,19 +1885,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1">
         <v>485</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="4">
         <v>57700</v>
@@ -1841,13 +1914,13 @@
         <v>486</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="4">
         <v>45650</v>
@@ -1864,13 +1937,13 @@
         <v>487</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="4">
         <v>51050</v>
@@ -1887,13 +1960,13 @@
         <v>488</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="4">
         <v>51700</v>
@@ -1904,19 +1977,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1">
         <v>489</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="4">
         <v>56950</v>
@@ -1933,7 +2006,7 @@
         <v>490</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>1</v>
@@ -1950,19 +2023,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>491</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="4">
         <v>51883</v>
@@ -1979,13 +2052,13 @@
         <v>492</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="4">
         <v>39150</v>
@@ -1996,19 +2069,19 @@
     </row>
     <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1">
         <v>493</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="4">
         <v>53850</v>
@@ -2019,19 +2092,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1">
         <v>494</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="4">
         <v>34667</v>
@@ -2042,36 +2115,36 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F38" s="4">
-        <v>51950</v>
+        <v>53450</v>
       </c>
       <c r="G38" s="4">
-        <v>4050</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>1</v>
@@ -2080,41 +2153,41 @@
         <v>74</v>
       </c>
       <c r="F39" s="4">
-        <v>53450</v>
+        <v>60567</v>
       </c>
       <c r="G39" s="4">
-        <v>6850</v>
+        <v>27183</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1">
+        <v>747</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="1">
-        <v>746</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="4">
+        <v>60017</v>
+      </c>
+      <c r="G40" s="4">
+        <v>24017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="4">
-        <v>60567</v>
-      </c>
-      <c r="G40" s="4">
-        <v>27183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B41" s="1">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>77</v>
@@ -2123,44 +2196,44 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" s="4">
-        <v>60017</v>
+        <v>53517</v>
       </c>
       <c r="G41" s="4">
-        <v>24017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+        <v>8117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F42" s="4">
-        <v>53517</v>
+        <v>54117</v>
       </c>
       <c r="G42" s="4">
-        <v>8117</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>81</v>
@@ -2169,90 +2242,90 @@
         <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F43" s="4">
-        <v>54117</v>
+        <v>43067</v>
       </c>
       <c r="G43" s="4">
-        <v>13750</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F44" s="4">
-        <v>43067</v>
-      </c>
-      <c r="G44" s="4">
-        <v>10067</v>
+        <v>49483</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F45" s="4">
-        <v>49483</v>
-      </c>
-      <c r="G45" s="3" t="s">
+        <v>43550</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-5.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1">
+        <v>768</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="1">
-        <v>760</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D46" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F46" s="4">
-        <v>43550</v>
+        <v>53600</v>
       </c>
       <c r="G46" s="4">
-        <v>-5.95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+        <v>9467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>88</v>
@@ -2261,62 +2334,40 @@
         <v>0</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="4">
+        <v>54550</v>
+      </c>
+      <c r="G47" s="4">
+        <v>18517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="1">
+        <v>771</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="4">
-        <v>53600</v>
-      </c>
-      <c r="G47" s="4">
-        <v>9467</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="1">
-        <v>770</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="4">
-        <v>54550</v>
+        <v>53517</v>
       </c>
       <c r="G48" s="4">
-        <v>18517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1">
-        <v>771</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="4">
-        <v>53517</v>
-      </c>
-      <c r="G49" s="4">
         <v>8117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>